--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Lama5-Bcam.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Lama5-Bcam.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15.68651366666667</v>
+        <v>20.215324</v>
       </c>
       <c r="H2">
-        <v>47.059541</v>
+        <v>60.645972</v>
       </c>
       <c r="I2">
-        <v>0.4415027620929874</v>
+        <v>0.5046434147095277</v>
       </c>
       <c r="J2">
-        <v>0.4415027620929874</v>
+        <v>0.5046434147095277</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>16.38230533333333</v>
+        <v>44.22587833333333</v>
       </c>
       <c r="N2">
-        <v>49.146916</v>
+        <v>132.677635</v>
       </c>
       <c r="O2">
-        <v>0.1975208036317654</v>
+        <v>0.3992109918068397</v>
       </c>
       <c r="P2">
-        <v>0.1975208036317654</v>
+        <v>0.3992109918068397</v>
       </c>
       <c r="Q2">
-        <v>256.9812565028395</v>
+        <v>894.0404596929133</v>
       </c>
       <c r="R2">
-        <v>2312.831308525556</v>
+        <v>8046.364137236221</v>
       </c>
       <c r="S2">
-        <v>0.08720598037425099</v>
+        <v>0.2014591980949808</v>
       </c>
       <c r="T2">
-        <v>0.08720598037425101</v>
+        <v>0.2014591980949809</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>15.68651366666667</v>
+        <v>20.215324</v>
       </c>
       <c r="H3">
-        <v>47.059541</v>
+        <v>60.645972</v>
       </c>
       <c r="I3">
-        <v>0.4415027620929874</v>
+        <v>0.5046434147095277</v>
       </c>
       <c r="J3">
-        <v>0.4415027620929874</v>
+        <v>0.5046434147095277</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>2.392402</v>
       </c>
       <c r="O3">
-        <v>0.009615031910654223</v>
+        <v>0.007198448896233843</v>
       </c>
       <c r="P3">
-        <v>0.009615031910654225</v>
+        <v>0.007198448896233844</v>
       </c>
       <c r="Q3">
-        <v>12.50948222305355</v>
+        <v>16.12106052274933</v>
       </c>
       <c r="R3">
-        <v>112.585340007482</v>
+        <v>145.089544704744</v>
       </c>
       <c r="S3">
-        <v>0.004245063146166054</v>
+        <v>0.003632649831607477</v>
       </c>
       <c r="T3">
-        <v>0.004245063146166055</v>
+        <v>0.003632649831607477</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>15.68651366666667</v>
+        <v>20.215324</v>
       </c>
       <c r="H4">
-        <v>47.059541</v>
+        <v>60.645972</v>
       </c>
       <c r="I4">
-        <v>0.4415027620929874</v>
+        <v>0.5046434147095277</v>
       </c>
       <c r="J4">
-        <v>0.4415027620929874</v>
+        <v>0.5046434147095277</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>65.75987233333335</v>
+        <v>65.75987233333333</v>
       </c>
       <c r="N4">
         <v>197.279617</v>
       </c>
       <c r="O4">
-        <v>0.7928641644575805</v>
+        <v>0.5935905592969265</v>
       </c>
       <c r="P4">
-        <v>0.7928641644575805</v>
+        <v>0.5935905592969265</v>
       </c>
       <c r="Q4">
-        <v>1031.543136075089</v>
+        <v>1329.357125416969</v>
       </c>
       <c r="R4">
-        <v>9283.888224675798</v>
+        <v>11964.21412875272</v>
       </c>
       <c r="S4">
-        <v>0.3500517185725704</v>
+        <v>0.2995515667829394</v>
       </c>
       <c r="T4">
-        <v>0.3500517185725704</v>
+        <v>0.2995515667829394</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>2.26996</v>
       </c>
       <c r="I5">
-        <v>0.0212962895205586</v>
+        <v>0.01888864714138046</v>
       </c>
       <c r="J5">
-        <v>0.0212962895205586</v>
+        <v>0.01888864714138046</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.38230533333333</v>
+        <v>44.22587833333333</v>
       </c>
       <c r="N5">
-        <v>49.146916</v>
+        <v>132.677635</v>
       </c>
       <c r="O5">
-        <v>0.1975208036317654</v>
+        <v>0.3992109918068397</v>
       </c>
       <c r="P5">
-        <v>0.1975208036317654</v>
+        <v>0.3992109918068397</v>
       </c>
       <c r="Q5">
-        <v>12.39572593815111</v>
+        <v>33.46365826051111</v>
       </c>
       <c r="R5">
-        <v>111.56153344336</v>
+        <v>301.1729243446</v>
       </c>
       <c r="S5">
-        <v>0.004206460220475478</v>
+        <v>0.007540555559199921</v>
       </c>
       <c r="T5">
-        <v>0.004206460220475478</v>
+        <v>0.00754055555919992</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>2.26996</v>
       </c>
       <c r="I6">
-        <v>0.0212962895205586</v>
+        <v>0.01888864714138046</v>
       </c>
       <c r="J6">
-        <v>0.0212962895205586</v>
+        <v>0.01888864714138046</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>2.392402</v>
       </c>
       <c r="O6">
-        <v>0.009615031910654223</v>
+        <v>0.007198448896233843</v>
       </c>
       <c r="P6">
-        <v>0.009615031910654225</v>
+        <v>0.007198448896233844</v>
       </c>
       <c r="Q6">
         <v>0.6034063159911109</v>
@@ -818,10 +818,10 @@
         <v>5.430656843919999</v>
       </c>
       <c r="S6">
-        <v>0.0002047645033187021</v>
+        <v>0.0001359689611662207</v>
       </c>
       <c r="T6">
-        <v>0.0002047645033187021</v>
+        <v>0.0001359689611662207</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>2.26996</v>
       </c>
       <c r="I7">
-        <v>0.0212962895205586</v>
+        <v>0.01888864714138046</v>
       </c>
       <c r="J7">
-        <v>0.0212962895205586</v>
+        <v>0.01888864714138046</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>65.75987233333335</v>
+        <v>65.75987233333333</v>
       </c>
       <c r="N7">
         <v>197.279617</v>
       </c>
       <c r="O7">
-        <v>0.7928641644575805</v>
+        <v>0.5935905592969265</v>
       </c>
       <c r="P7">
-        <v>0.7928641644575805</v>
+        <v>0.5935905592969265</v>
       </c>
       <c r="Q7">
-        <v>49.75742660059112</v>
+        <v>49.75742660059111</v>
       </c>
       <c r="R7">
         <v>447.81683940532</v>
       </c>
       <c r="S7">
-        <v>0.01688506479676442</v>
+        <v>0.01121212262101432</v>
       </c>
       <c r="T7">
-        <v>0.01688506479676442</v>
+        <v>0.01121212262101432</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,13 +909,13 @@
         <v>19.086653</v>
       </c>
       <c r="H8">
-        <v>57.259959</v>
+        <v>57.25995900000001</v>
       </c>
       <c r="I8">
-        <v>0.537200948386454</v>
+        <v>0.4764679381490919</v>
       </c>
       <c r="J8">
-        <v>0.5372009483864539</v>
+        <v>0.4764679381490919</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>16.38230533333333</v>
+        <v>44.22587833333333</v>
       </c>
       <c r="N8">
-        <v>49.146916</v>
+        <v>132.677635</v>
       </c>
       <c r="O8">
-        <v>0.1975208036317654</v>
+        <v>0.3992109918068397</v>
       </c>
       <c r="P8">
-        <v>0.1975208036317654</v>
+        <v>0.3992109918068397</v>
       </c>
       <c r="Q8">
-        <v>312.6833772373827</v>
+        <v>844.1239933685517</v>
       </c>
       <c r="R8">
-        <v>2814.150395136444</v>
+        <v>7597.115940316967</v>
       </c>
       <c r="S8">
-        <v>0.1061083630370389</v>
+        <v>0.1902112381526589</v>
       </c>
       <c r="T8">
-        <v>0.1061083630370389</v>
+        <v>0.1902112381526589</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,13 +971,13 @@
         <v>19.086653</v>
       </c>
       <c r="H9">
-        <v>57.259959</v>
+        <v>57.25995900000001</v>
       </c>
       <c r="I9">
-        <v>0.537200948386454</v>
+        <v>0.4764679381490919</v>
       </c>
       <c r="J9">
-        <v>0.5372009483864539</v>
+        <v>0.4764679381490919</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>2.392402</v>
       </c>
       <c r="O9">
-        <v>0.009615031910654223</v>
+        <v>0.007198448896233843</v>
       </c>
       <c r="P9">
-        <v>0.009615031910654225</v>
+        <v>0.007198448896233844</v>
       </c>
       <c r="Q9">
         <v>15.22098227016867</v>
@@ -1004,10 +1004,10 @@
         <v>136.988840431518</v>
       </c>
       <c r="S9">
-        <v>0.005165204261169468</v>
+        <v>0.003429830103460145</v>
       </c>
       <c r="T9">
-        <v>0.005165204261169468</v>
+        <v>0.003429830103460146</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,13 +1033,13 @@
         <v>19.086653</v>
       </c>
       <c r="H10">
-        <v>57.259959</v>
+        <v>57.25995900000001</v>
       </c>
       <c r="I10">
-        <v>0.537200948386454</v>
+        <v>0.4764679381490919</v>
       </c>
       <c r="J10">
-        <v>0.5372009483864539</v>
+        <v>0.4764679381490919</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,16 +1048,16 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>65.75987233333335</v>
+        <v>65.75987233333333</v>
       </c>
       <c r="N10">
         <v>197.279617</v>
       </c>
       <c r="O10">
-        <v>0.7928641644575805</v>
+        <v>0.5935905592969265</v>
       </c>
       <c r="P10">
-        <v>0.7928641644575805</v>
+        <v>0.5935905592969265</v>
       </c>
       <c r="Q10">
         <v>1255.135864550634</v>
@@ -1066,10 +1066,10 @@
         <v>11296.2227809557</v>
       </c>
       <c r="S10">
-        <v>0.4259273810882457</v>
+        <v>0.2828268698929728</v>
       </c>
       <c r="T10">
-        <v>0.4259273810882456</v>
+        <v>0.2828268698929728</v>
       </c>
     </row>
   </sheetData>
